--- a/src/main/resources/substituttlister/V17_lofteplattformer_og_hjelpemiddel_i_trapp.xlsx
+++ b/src/main/resources/substituttlister/V17_lofteplattformer_og_hjelpemiddel_i_trapp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dinhanhtuantran/dev/navikt/hm/hm-grunndata-alternativprodukter/src/main/resources/substituttlister/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D1A70A-C7DC-DD4E-97F5-925B965FE827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBCBD00-2773-C044-89F6-4266B1D35EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="1620" windowWidth="38700" windowHeight="15380" activeTab="1" xr2:uid="{DAB7D3D8-04D0-4DD5-9B74-78B882D95CED}"/>
+    <workbookView xWindow="4840" yWindow="500" windowWidth="38700" windowHeight="17760" activeTab="1" xr2:uid="{DAB7D3D8-04D0-4DD5-9B74-78B882D95CED}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="282">
   <si>
     <t>Delkontrakt</t>
   </si>
@@ -344,12 +344,18 @@
     <t>H+V side</t>
   </si>
   <si>
+    <t>Stannah 600 hø</t>
+  </si>
+  <si>
+    <t>Stannah 600 ve</t>
+  </si>
+  <si>
+    <t>Venstre side</t>
+  </si>
+  <si>
     <t>Siena 600 V</t>
   </si>
   <si>
-    <t>Venstre side</t>
-  </si>
-  <si>
     <t>Trappeheis med sete for rett trapp - utendørs bruk</t>
   </si>
   <si>
@@ -359,6 +365,15 @@
     <t>Stannah 320</t>
   </si>
   <si>
+    <t xml:space="preserve">Stannah 320 </t>
+  </si>
+  <si>
+    <t>Stannah 320 hø</t>
+  </si>
+  <si>
+    <t>Stannah 320 ve</t>
+  </si>
+  <si>
     <t xml:space="preserve">Trappeheis med sete for trapp med sving/repos </t>
   </si>
   <si>
@@ -371,6 +386,18 @@
     <t>Siena 260 V</t>
   </si>
   <si>
+    <t>Starla 260 hø</t>
+  </si>
+  <si>
+    <t>Starla 260 ve</t>
+  </si>
+  <si>
+    <t>Resirk</t>
+  </si>
+  <si>
+    <t>Flow2A</t>
+  </si>
+  <si>
     <t>Trappeheis for bruk i innendørs  Festes i senter av trappen</t>
   </si>
   <si>
@@ -402,9 +429,6 @@
   </si>
   <si>
     <t>Hepro Elite sving</t>
-  </si>
-  <si>
-    <t>Resirk</t>
   </si>
   <si>
     <t>Trappeheis med sete for trapp,sving/repos - utendørs bruk</t>
@@ -2335,11 +2359,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB76E46D-1EF6-40EF-A4D0-D868CB9F4861}">
-  <dimension ref="A1:XFB639"/>
+  <dimension ref="A1:XFB663"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D387" sqref="D387"/>
+      <pane ySplit="1" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D312" sqref="D312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17677,45 +17701,49 @@
         <v>100</v>
       </c>
     </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A291" s="21"/>
+      <c r="C291" t="s">
+        <v>101</v>
+      </c>
+      <c r="D291" s="21">
+        <v>231050</v>
+      </c>
+      <c r="E291" t="s">
+        <v>98</v>
+      </c>
+    </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A292" s="21">
+      <c r="A292" s="21"/>
+      <c r="C292" t="s">
+        <v>102</v>
+      </c>
+      <c r="D292" s="21">
+        <v>232585</v>
+      </c>
+      <c r="E292" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A294" s="21">
         <v>8</v>
       </c>
-      <c r="B292" s="23" t="s">
+      <c r="B294" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="C292" t="s">
-        <v>101</v>
-      </c>
-      <c r="D292" s="21">
+      <c r="C294" t="s">
+        <v>104</v>
+      </c>
+      <c r="D294" s="21">
         <v>324399</v>
       </c>
-      <c r="E292" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A293" s="21"/>
-      <c r="C293" t="s">
-        <v>99</v>
-      </c>
-      <c r="D293" s="21">
-        <v>325316</v>
-      </c>
-      <c r="E293" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A294" s="21"/>
+      <c r="E294" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A295" s="21">
-        <v>8</v>
-      </c>
-      <c r="B295" s="23" t="s">
-        <v>96</v>
-      </c>
+      <c r="A295" s="21"/>
       <c r="C295" t="s">
         <v>99</v>
       </c>
@@ -17729,10 +17757,10 @@
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="21"/>
       <c r="C296" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D296" s="21">
-        <v>324398</v>
+        <v>231050</v>
       </c>
       <c r="E296" t="s">
         <v>98</v>
@@ -17741,13 +17769,13 @@
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="21"/>
       <c r="C297" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D297" s="21">
-        <v>324399</v>
+        <v>232585</v>
       </c>
       <c r="E297" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
@@ -17755,16 +17783,16 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B299" s="23" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C299" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D299" s="21">
-        <v>325317</v>
+        <v>325316</v>
       </c>
       <c r="E299" t="s">
         <v>100</v>
@@ -17773,10 +17801,10 @@
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="21"/>
       <c r="C300" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D300" s="21">
-        <v>156575</v>
+        <v>324398</v>
       </c>
       <c r="E300" t="s">
         <v>98</v>
@@ -17785,138 +17813,146 @@
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="21"/>
       <c r="C301" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D301" s="21">
-        <v>232583</v>
+        <v>324399</v>
       </c>
       <c r="E301" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="21"/>
+      <c r="C302" t="s">
+        <v>101</v>
+      </c>
+      <c r="D302" s="21">
+        <v>231050</v>
+      </c>
+      <c r="E302" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A303" s="21">
-        <v>9</v>
-      </c>
-      <c r="B303" s="23" t="s">
+      <c r="A303" s="21"/>
+      <c r="C303" t="s">
+        <v>102</v>
+      </c>
+      <c r="D303" s="21">
+        <v>232585</v>
+      </c>
+      <c r="E303" t="s">
         <v>103</v>
-      </c>
-      <c r="C303" t="s">
-        <v>105</v>
-      </c>
-      <c r="D303" s="21">
-        <v>156575</v>
-      </c>
-      <c r="E303" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="21"/>
-      <c r="C304" t="s">
-        <v>104</v>
-      </c>
-      <c r="D304" s="21">
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A305" s="21">
+        <v>9</v>
+      </c>
+      <c r="B305" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C305" t="s">
+        <v>106</v>
+      </c>
+      <c r="D305" s="21">
         <v>325317</v>
       </c>
-      <c r="E304" t="s">
+      <c r="E305" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A305" s="21"/>
-    </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A306" s="21">
-        <v>9</v>
-      </c>
-      <c r="B306" s="23" t="s">
-        <v>103</v>
-      </c>
+      <c r="A306" s="21"/>
       <c r="C306" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D306" s="21">
-        <v>232583</v>
+        <v>156575</v>
       </c>
       <c r="E306" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="21"/>
       <c r="C307" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D307" s="21">
-        <v>325317</v>
+        <v>232583</v>
       </c>
       <c r="E307" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="21"/>
+      <c r="C308" t="s">
+        <v>109</v>
+      </c>
+      <c r="D308" s="21">
+        <v>156575</v>
+      </c>
+      <c r="E308" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A309" s="21">
-        <v>10</v>
-      </c>
-      <c r="B309" s="23" t="s">
-        <v>106</v>
-      </c>
+      <c r="A309" s="21"/>
       <c r="C309" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D309" s="21">
-        <v>326489</v>
+        <v>232585</v>
       </c>
       <c r="E309" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="21"/>
-      <c r="C310" t="s">
-        <v>108</v>
-      </c>
-      <c r="D310" s="21">
-        <v>324396</v>
-      </c>
-      <c r="E310" t="s">
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A311" s="21">
+        <v>9</v>
+      </c>
+      <c r="B311" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C311" t="s">
+        <v>107</v>
+      </c>
+      <c r="D311" s="21">
+        <v>156575</v>
+      </c>
+      <c r="E311" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A311" s="21"/>
-      <c r="C311" t="s">
-        <v>109</v>
-      </c>
-      <c r="D311" s="21">
-        <v>324397</v>
-      </c>
-      <c r="E311" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="21"/>
+      <c r="C312" t="s">
+        <v>106</v>
+      </c>
+      <c r="D312" s="21">
+        <v>325317</v>
+      </c>
+      <c r="E312" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A313" s="21">
-        <v>10</v>
-      </c>
-      <c r="B313" s="23" t="s">
-        <v>106</v>
-      </c>
+      <c r="A313" s="21"/>
       <c r="C313" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D313" s="21">
-        <v>324396</v>
+        <v>156575</v>
       </c>
       <c r="E313" t="s">
         <v>98</v>
@@ -17925,13 +17961,13 @@
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="21"/>
       <c r="C314" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D314" s="21">
-        <v>326489</v>
+        <v>232585</v>
       </c>
       <c r="E314" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
@@ -17939,28 +17975,28 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B316" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C316" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D316" s="21">
-        <v>324397</v>
+        <v>232583</v>
       </c>
       <c r="E316" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="21"/>
       <c r="C317" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D317" s="21">
-        <v>326489</v>
+        <v>325317</v>
       </c>
       <c r="E317" t="s">
         <v>100</v>
@@ -17968,111 +18004,118 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="21"/>
+      <c r="C318" t="s">
+        <v>109</v>
+      </c>
+      <c r="D318" s="21">
+        <v>156575</v>
+      </c>
+      <c r="E318" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A319" s="21">
-        <v>11</v>
-      </c>
-      <c r="B319" s="23" t="s">
+      <c r="A319" s="21"/>
+      <c r="C319" t="s">
         <v>110</v>
       </c>
-      <c r="C319" t="s">
-        <v>111</v>
-      </c>
       <c r="D319" s="21">
-        <v>324394</v>
+        <v>232585</v>
       </c>
       <c r="E319" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="21"/>
-      <c r="B320" s="23"/>
-      <c r="C320" t="s">
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A321" s="21">
+        <v>10</v>
+      </c>
+      <c r="B321" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C321" t="s">
         <v>112</v>
       </c>
-      <c r="D320" s="21">
-        <v>231051</v>
-      </c>
-      <c r="E320" t="s">
+      <c r="D321" s="21">
+        <v>326489</v>
+      </c>
+      <c r="E321" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A322" s="21"/>
+      <c r="C322" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A321" s="21"/>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A322" s="21">
-        <v>11</v>
-      </c>
-      <c r="B322" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="C322" t="s">
-        <v>114</v>
-      </c>
       <c r="D322" s="21">
-        <v>324395</v>
+        <v>324396</v>
       </c>
       <c r="E322" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="21"/>
       <c r="C323" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D323" s="21">
-        <v>232580</v>
+        <v>324397</v>
       </c>
       <c r="E323" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="21"/>
+      <c r="C324" t="s">
+        <v>115</v>
+      </c>
+      <c r="D324" s="21">
+        <v>198757</v>
+      </c>
+      <c r="E324" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A325" s="21">
-        <v>12</v>
-      </c>
-      <c r="B325" s="23" t="s">
-        <v>117</v>
-      </c>
+      <c r="A325" s="21"/>
       <c r="C325" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D325" s="21">
-        <v>231052</v>
+        <v>232584</v>
       </c>
       <c r="E325" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="21"/>
       <c r="C326" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D326" s="21">
-        <v>232581</v>
+        <v>288278</v>
       </c>
       <c r="E326" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="21"/>
       <c r="C327" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D327" s="21">
-        <v>230963</v>
+        <v>230562</v>
       </c>
       <c r="E327" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
@@ -18080,75 +18123,79 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="21">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B329" s="23" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C329" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D329" s="21">
-        <v>324146</v>
+        <v>324396</v>
       </c>
       <c r="E329" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="21"/>
       <c r="C330" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D330" s="21">
-        <v>231053</v>
+        <v>326489</v>
       </c>
       <c r="E330" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="21"/>
       <c r="C331" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D331" s="21">
-        <v>232582</v>
+        <v>198757</v>
       </c>
       <c r="E331" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="21"/>
+      <c r="C332" t="s">
+        <v>116</v>
+      </c>
+      <c r="D332" s="21">
+        <v>232584</v>
+      </c>
+      <c r="E332" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A333" s="21">
-        <v>13</v>
-      </c>
-      <c r="B333" s="23" t="s">
-        <v>122</v>
-      </c>
+      <c r="A333" s="21"/>
       <c r="C333" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D333" s="21">
-        <v>231053</v>
+        <v>288278</v>
       </c>
       <c r="E333" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="21"/>
       <c r="C334" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D334" s="21">
-        <v>324146</v>
+        <v>230562</v>
       </c>
       <c r="E334" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
@@ -18156,28 +18203,28 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="21">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B336" s="23" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C336" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D336" s="21">
-        <v>232582</v>
+        <v>324397</v>
       </c>
       <c r="E336" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" s="21"/>
       <c r="C337" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D337" s="21">
-        <v>324146</v>
+        <v>326489</v>
       </c>
       <c r="E337" t="s">
         <v>100</v>
@@ -18185,274 +18232,326 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" s="21"/>
+      <c r="C338" t="s">
+        <v>115</v>
+      </c>
+      <c r="D338" s="21">
+        <v>198757</v>
+      </c>
+      <c r="E338" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A339" s="21">
-        <v>14</v>
-      </c>
-      <c r="B339" s="23" t="s">
-        <v>126</v>
-      </c>
+      <c r="A339" s="21"/>
       <c r="C339" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="D339" s="21">
-        <v>324147</v>
+        <v>232584</v>
+      </c>
+      <c r="E339" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" s="21"/>
       <c r="C340" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="D340" s="21">
-        <v>324149</v>
+        <v>288278</v>
+      </c>
+      <c r="E340" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" s="21"/>
       <c r="C341" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D341" s="21">
-        <v>324151</v>
+        <v>230562</v>
+      </c>
+      <c r="E341" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" s="21"/>
-      <c r="C342" t="s">
-        <v>130</v>
-      </c>
-      <c r="D342" s="21">
-        <v>324157</v>
-      </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A343" s="21"/>
+      <c r="A343" s="21">
+        <v>11</v>
+      </c>
+      <c r="B343" s="23" t="s">
+        <v>119</v>
+      </c>
       <c r="C343" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D343" s="21">
-        <v>324153</v>
+        <v>324394</v>
+      </c>
+      <c r="E343" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="21"/>
+      <c r="B344" s="23"/>
       <c r="C344" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D344" s="21">
-        <v>324155</v>
+        <v>231051</v>
+      </c>
+      <c r="E344" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="21"/>
-      <c r="C345" t="s">
-        <v>133</v>
-      </c>
-      <c r="D345" s="21">
-        <v>324159</v>
-      </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A346" s="21"/>
+      <c r="A346" s="21">
+        <v>11</v>
+      </c>
+      <c r="B346" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C346" t="s">
+        <v>123</v>
+      </c>
+      <c r="D346" s="21">
+        <v>324395</v>
+      </c>
+      <c r="E346" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A347" s="21">
-        <v>14</v>
-      </c>
-      <c r="B347" s="23" t="s">
-        <v>126</v>
-      </c>
+      <c r="A347" s="21"/>
       <c r="C347" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D347" s="21">
-        <v>324149</v>
+        <v>232580</v>
+      </c>
+      <c r="E347" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" s="21"/>
-      <c r="C348" t="s">
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A349" s="21">
+        <v>12</v>
+      </c>
+      <c r="B349" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C349" t="s">
         <v>127</v>
       </c>
-      <c r="D348" s="21">
-        <v>324147</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A349" s="21"/>
-      <c r="C349" t="s">
-        <v>129</v>
-      </c>
       <c r="D349" s="21">
-        <v>324151</v>
+        <v>231052</v>
+      </c>
+      <c r="E349" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" s="21"/>
       <c r="C350" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D350" s="21">
-        <v>324157</v>
+        <v>232581</v>
+      </c>
+      <c r="E350" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="21"/>
       <c r="C351" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D351" s="21">
-        <v>324153</v>
+        <v>230963</v>
+      </c>
+      <c r="E351" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" s="21"/>
-      <c r="C352" t="s">
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A353" s="21">
+        <v>13</v>
+      </c>
+      <c r="B353" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C353" t="s">
+        <v>131</v>
+      </c>
+      <c r="D353" s="21">
+        <v>324146</v>
+      </c>
+      <c r="E353" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A354" s="21"/>
+      <c r="C354" t="s">
         <v>132</v>
       </c>
-      <c r="D352" s="21">
-        <v>324155</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A353" s="21"/>
-      <c r="C353" t="s">
+      <c r="D354" s="21">
+        <v>231053</v>
+      </c>
+      <c r="E354" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A355" s="21"/>
+      <c r="C355" t="s">
         <v>133</v>
       </c>
-      <c r="D353" s="21">
-        <v>324159</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A354" s="21"/>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A355" s="21">
-        <v>14</v>
-      </c>
-      <c r="B355" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="C355" t="s">
-        <v>129</v>
-      </c>
       <c r="D355" s="21">
-        <v>324151</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+        <v>232582</v>
+      </c>
+      <c r="E355" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="21"/>
-      <c r="C356" t="s">
-        <v>127</v>
-      </c>
-      <c r="D356" s="21">
-        <v>324147</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A357" s="21"/>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A357" s="21">
+        <v>13</v>
+      </c>
+      <c r="B357" s="23" t="s">
+        <v>130</v>
+      </c>
       <c r="C357" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D357" s="21">
-        <v>324149</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+        <v>231053</v>
+      </c>
+      <c r="E357" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="21"/>
       <c r="C358" t="s">
+        <v>131</v>
+      </c>
+      <c r="D358" s="21">
+        <v>324146</v>
+      </c>
+      <c r="E358" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A359" s="21"/>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A360" s="21">
+        <v>13</v>
+      </c>
+      <c r="B360" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="D358" s="21">
-        <v>324157</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A359" s="21"/>
-      <c r="C359" t="s">
-        <v>131</v>
-      </c>
-      <c r="D359" s="21">
-        <v>324153</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A360" s="21"/>
       <c r="C360" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D360" s="21">
-        <v>324155</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+        <v>232582</v>
+      </c>
+      <c r="E360" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" s="21"/>
       <c r="C361" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D361" s="21">
-        <v>324159</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+        <v>324146</v>
+      </c>
+      <c r="E361" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="21"/>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="21">
         <v>14</v>
       </c>
       <c r="B363" s="23" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C363" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D363" s="21">
-        <v>324157</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+        <v>324147</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="21"/>
       <c r="C364" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D364" s="21">
-        <v>324147</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+        <v>324149</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="21"/>
       <c r="C365" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D365" s="21">
-        <v>324149</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+        <v>324151</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="21"/>
       <c r="C366" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D366" s="21">
-        <v>324151</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+        <v>324157</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="21"/>
       <c r="C367" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D367" s="21">
         <v>324153</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" s="21"/>
       <c r="C368" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D368" s="21">
         <v>324155</v>
@@ -18461,7 +18560,7 @@
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" s="21"/>
       <c r="C369" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D369" s="21">
         <v>324159</v>
@@ -18475,19 +18574,19 @@
         <v>14</v>
       </c>
       <c r="B371" s="23" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C371" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D371" s="21">
-        <v>324153</v>
+        <v>324149</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="21"/>
       <c r="C372" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D372" s="21">
         <v>324147</v>
@@ -18496,34 +18595,34 @@
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="21"/>
       <c r="C373" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D373" s="21">
-        <v>324149</v>
+        <v>324151</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" s="21"/>
       <c r="C374" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D374" s="21">
-        <v>324151</v>
+        <v>324157</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" s="21"/>
       <c r="C375" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D375" s="21">
-        <v>324157</v>
+        <v>324153</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" s="21"/>
       <c r="C376" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D376" s="21">
         <v>324155</v>
@@ -18532,7 +18631,7 @@
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" s="21"/>
       <c r="C377" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D377" s="21">
         <v>324159</v>
@@ -18546,19 +18645,19 @@
         <v>14</v>
       </c>
       <c r="B379" s="23" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C379" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D379" s="21">
-        <v>324155</v>
+        <v>324151</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" s="21"/>
       <c r="C380" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D380" s="21">
         <v>324147</v>
@@ -18567,7 +18666,7 @@
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" s="21"/>
       <c r="C381" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D381" s="21">
         <v>324149</v>
@@ -18576,34 +18675,34 @@
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" s="21"/>
       <c r="C382" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D382" s="21">
-        <v>324151</v>
+        <v>324157</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" s="21"/>
       <c r="C383" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D383" s="21">
-        <v>324157</v>
+        <v>324153</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" s="21"/>
       <c r="C384" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="D384" s="21">
-        <v>324153</v>
+        <v>324155</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" s="21"/>
       <c r="C385" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D385" s="21">
         <v>324159</v>
@@ -18617,19 +18716,19 @@
         <v>14</v>
       </c>
       <c r="B387" s="23" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C387" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D387" s="21">
-        <v>324159</v>
+        <v>324157</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" s="21"/>
       <c r="C388" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D388" s="21">
         <v>324147</v>
@@ -18638,7 +18737,7 @@
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" s="21"/>
       <c r="C389" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D389" s="21">
         <v>324149</v>
@@ -18647,7 +18746,7 @@
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" s="21"/>
       <c r="C390" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D390" s="21">
         <v>324151</v>
@@ -18656,28 +18755,28 @@
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" s="21"/>
       <c r="C391" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D391" s="21">
-        <v>324157</v>
+        <v>324153</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" s="21"/>
       <c r="C392" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="D392" s="21">
-        <v>324153</v>
+        <v>324155</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" s="21"/>
       <c r="C393" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="D393" s="21">
-        <v>324155</v>
+        <v>324159</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
@@ -18688,13 +18787,13 @@
         <v>14</v>
       </c>
       <c r="B395" s="23" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C395" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D395" s="21">
-        <v>326247</v>
+        <v>324153</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
@@ -18703,7 +18802,7 @@
         <v>135</v>
       </c>
       <c r="D396" s="21">
-        <v>326248</v>
+        <v>324147</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
@@ -18712,7 +18811,7 @@
         <v>136</v>
       </c>
       <c r="D397" s="21">
-        <v>326250</v>
+        <v>324149</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
@@ -18721,7 +18820,7 @@
         <v>137</v>
       </c>
       <c r="D398" s="21">
-        <v>326249</v>
+        <v>324151</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
@@ -18730,449 +18829,448 @@
         <v>138</v>
       </c>
       <c r="D399" s="21">
-        <v>326252</v>
+        <v>324157</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" s="21"/>
       <c r="C400" t="s">
+        <v>140</v>
+      </c>
+      <c r="D400" s="21">
+        <v>324155</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A401" s="21"/>
+      <c r="C401" t="s">
+        <v>141</v>
+      </c>
+      <c r="D401" s="21">
+        <v>324159</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A402" s="21"/>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A403" s="21">
+        <v>14</v>
+      </c>
+      <c r="B403" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C403" t="s">
+        <v>140</v>
+      </c>
+      <c r="D403" s="21">
+        <v>324155</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A404" s="21"/>
+      <c r="C404" t="s">
+        <v>135</v>
+      </c>
+      <c r="D404" s="21">
+        <v>324147</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A405" s="21"/>
+      <c r="C405" t="s">
+        <v>136</v>
+      </c>
+      <c r="D405" s="21">
+        <v>324149</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A406" s="21"/>
+      <c r="C406" t="s">
+        <v>137</v>
+      </c>
+      <c r="D406" s="21">
+        <v>324151</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A407" s="21"/>
+      <c r="C407" t="s">
+        <v>138</v>
+      </c>
+      <c r="D407" s="21">
+        <v>324157</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A408" s="21"/>
+      <c r="C408" t="s">
         <v>139</v>
       </c>
-      <c r="D400" s="21">
-        <v>326251</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C401" t="s">
+      <c r="D408" s="21">
+        <v>324153</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A409" s="21"/>
+      <c r="C409" t="s">
+        <v>141</v>
+      </c>
+      <c r="D409" s="21">
+        <v>324159</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A410" s="21"/>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A411" s="21">
+        <v>14</v>
+      </c>
+      <c r="B411" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C411" t="s">
+        <v>141</v>
+      </c>
+      <c r="D411" s="21">
+        <v>324159</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A412" s="21"/>
+      <c r="C412" t="s">
+        <v>135</v>
+      </c>
+      <c r="D412" s="21">
+        <v>324147</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A413" s="21"/>
+      <c r="C413" t="s">
+        <v>136</v>
+      </c>
+      <c r="D413" s="21">
+        <v>324149</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A414" s="21"/>
+      <c r="C414" t="s">
+        <v>137</v>
+      </c>
+      <c r="D414" s="21">
+        <v>324151</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A415" s="21"/>
+      <c r="C415" t="s">
+        <v>138</v>
+      </c>
+      <c r="D415" s="21">
+        <v>324157</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A416" s="21"/>
+      <c r="C416" t="s">
+        <v>139</v>
+      </c>
+      <c r="D416" s="21">
+        <v>324153</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A417" s="21"/>
+      <c r="C417" t="s">
         <v>140</v>
       </c>
-      <c r="D401" s="21">
-        <v>326256</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C402" t="s">
-        <v>141</v>
-      </c>
-      <c r="D402" s="21">
-        <v>326253</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C403" t="s">
+      <c r="D417" s="21">
+        <v>324155</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A418" s="21"/>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A419" s="21">
+        <v>14</v>
+      </c>
+      <c r="B419" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C419" t="s">
         <v>142</v>
       </c>
-      <c r="D403" s="21">
-        <v>326254</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C404" t="s">
-        <v>143</v>
-      </c>
-      <c r="D404" s="21">
-        <v>326255</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C405" t="s">
-        <v>144</v>
-      </c>
-      <c r="D405" s="21">
-        <v>326257</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C406" t="s">
-        <v>145</v>
-      </c>
-      <c r="D406" s="21">
-        <v>326258</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C407" t="s">
-        <v>146</v>
-      </c>
-      <c r="D407" s="21">
-        <v>326259</v>
-      </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A409" s="21">
-        <v>14</v>
-      </c>
-      <c r="B409" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="C409" t="s">
-        <v>135</v>
-      </c>
-      <c r="D409" s="21">
-        <v>326248</v>
-      </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C410" t="s">
-        <v>134</v>
-      </c>
-      <c r="D410" s="21">
+      <c r="D419" s="21">
         <v>326247</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C411" t="s">
-        <v>136</v>
-      </c>
-      <c r="D411" s="21">
-        <v>326250</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C412" t="s">
-        <v>137</v>
-      </c>
-      <c r="D412" s="21">
-        <v>326249</v>
-      </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C413" t="s">
-        <v>138</v>
-      </c>
-      <c r="D413" s="21">
-        <v>326252</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C414" t="s">
-        <v>139</v>
-      </c>
-      <c r="D414" s="21">
-        <v>326251</v>
-      </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C415" t="s">
-        <v>140</v>
-      </c>
-      <c r="D415" s="21">
-        <v>326256</v>
-      </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C416" t="s">
-        <v>141</v>
-      </c>
-      <c r="D416" s="21">
-        <v>326253</v>
-      </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C417" t="s">
-        <v>142</v>
-      </c>
-      <c r="D417" s="21">
-        <v>326254</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C418" t="s">
-        <v>143</v>
-      </c>
-      <c r="D418" s="21">
-        <v>326255</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A419" s="21"/>
-      <c r="C419" t="s">
-        <v>144</v>
-      </c>
-      <c r="D419" s="21">
-        <v>326257</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" s="21"/>
       <c r="C420" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D420" s="21">
-        <v>326258</v>
+        <v>326248</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" s="21"/>
       <c r="C421" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D421" s="21">
-        <v>326259</v>
+        <v>326250</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="21"/>
+      <c r="C422" t="s">
+        <v>145</v>
+      </c>
+      <c r="D422" s="21">
+        <v>326249</v>
+      </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A423" s="21">
-        <v>14</v>
-      </c>
-      <c r="B423" s="23" t="s">
-        <v>126</v>
-      </c>
+      <c r="A423" s="21"/>
       <c r="C423" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D423" s="21">
-        <v>326250</v>
+        <v>326252</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="21"/>
       <c r="C424" t="s">
+        <v>147</v>
+      </c>
+      <c r="D424" s="21">
+        <v>326251</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C425" t="s">
+        <v>148</v>
+      </c>
+      <c r="D425" s="21">
+        <v>326256</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C426" t="s">
+        <v>149</v>
+      </c>
+      <c r="D426" s="21">
+        <v>326253</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C427" t="s">
+        <v>150</v>
+      </c>
+      <c r="D427" s="21">
+        <v>326254</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C428" t="s">
+        <v>151</v>
+      </c>
+      <c r="D428" s="21">
+        <v>326255</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C429" t="s">
+        <v>152</v>
+      </c>
+      <c r="D429" s="21">
+        <v>326257</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C430" t="s">
+        <v>153</v>
+      </c>
+      <c r="D430" s="21">
+        <v>326258</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C431" t="s">
+        <v>154</v>
+      </c>
+      <c r="D431" s="21">
+        <v>326259</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A433" s="21">
+        <v>14</v>
+      </c>
+      <c r="B433" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="D424" s="21">
+      <c r="C433" t="s">
+        <v>143</v>
+      </c>
+      <c r="D433" s="21">
+        <v>326248</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C434" t="s">
+        <v>142</v>
+      </c>
+      <c r="D434" s="21">
         <v>326247</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A425" s="21"/>
-      <c r="C425" t="s">
-        <v>135</v>
-      </c>
-      <c r="D425" s="21">
-        <v>326248</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A426" s="21"/>
-      <c r="C426" t="s">
-        <v>137</v>
-      </c>
-      <c r="D426" s="21">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C435" t="s">
+        <v>144</v>
+      </c>
+      <c r="D435" s="21">
+        <v>326250</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C436" t="s">
+        <v>145</v>
+      </c>
+      <c r="D436" s="21">
         <v>326249</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A427" s="21"/>
-      <c r="C427" t="s">
-        <v>138</v>
-      </c>
-      <c r="D427" s="21">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C437" t="s">
+        <v>146</v>
+      </c>
+      <c r="D437" s="21">
         <v>326252</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A428" s="21"/>
-      <c r="C428" t="s">
-        <v>139</v>
-      </c>
-      <c r="D428" s="21">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C438" t="s">
+        <v>147</v>
+      </c>
+      <c r="D438" s="21">
         <v>326251</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A429" s="21"/>
-      <c r="C429" t="s">
-        <v>140</v>
-      </c>
-      <c r="D429" s="21">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C439" t="s">
+        <v>148</v>
+      </c>
+      <c r="D439" s="21">
         <v>326256</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A430" s="21"/>
-      <c r="C430" t="s">
-        <v>141</v>
-      </c>
-      <c r="D430" s="21">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C440" t="s">
+        <v>149</v>
+      </c>
+      <c r="D440" s="21">
         <v>326253</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A431" s="21"/>
-      <c r="C431" t="s">
-        <v>142</v>
-      </c>
-      <c r="D431" s="21">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C441" t="s">
+        <v>150</v>
+      </c>
+      <c r="D441" s="21">
         <v>326254</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A432" s="21"/>
-      <c r="C432" t="s">
-        <v>143</v>
-      </c>
-      <c r="D432" s="21">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C442" t="s">
+        <v>151</v>
+      </c>
+      <c r="D442" s="21">
         <v>326255</v>
-      </c>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A433" s="21"/>
-      <c r="C433" t="s">
-        <v>144</v>
-      </c>
-      <c r="D433" s="21">
-        <v>326257</v>
-      </c>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A434" s="21"/>
-      <c r="C434" t="s">
-        <v>145</v>
-      </c>
-      <c r="D434" s="21">
-        <v>326258</v>
-      </c>
-    </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A435" s="21"/>
-      <c r="C435" t="s">
-        <v>146</v>
-      </c>
-      <c r="D435" s="21">
-        <v>326259</v>
-      </c>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A436" s="21"/>
-    </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A437" s="21">
-        <v>14</v>
-      </c>
-      <c r="B437" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="C437" t="s">
-        <v>137</v>
-      </c>
-      <c r="D437" s="21">
-        <v>326249</v>
-      </c>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A438" s="21"/>
-      <c r="C438" t="s">
-        <v>134</v>
-      </c>
-      <c r="D438" s="21">
-        <v>326247</v>
-      </c>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A439" s="21"/>
-      <c r="C439" t="s">
-        <v>135</v>
-      </c>
-      <c r="D439" s="21">
-        <v>326248</v>
-      </c>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A440" s="21"/>
-      <c r="C440" t="s">
-        <v>136</v>
-      </c>
-      <c r="D440" s="21">
-        <v>326250</v>
-      </c>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A441" s="21"/>
-      <c r="C441" t="s">
-        <v>138</v>
-      </c>
-      <c r="D441" s="21">
-        <v>326252</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A442" s="21"/>
-      <c r="C442" t="s">
-        <v>139</v>
-      </c>
-      <c r="D442" s="21">
-        <v>326251</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" s="21"/>
       <c r="C443" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="D443" s="21">
-        <v>326256</v>
+        <v>326257</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" s="21"/>
       <c r="C444" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="D444" s="21">
-        <v>326253</v>
+        <v>326258</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" s="21"/>
       <c r="C445" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="D445" s="21">
-        <v>326254</v>
+        <v>326259</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" s="21"/>
-      <c r="C446" t="s">
-        <v>143</v>
-      </c>
-      <c r="D446" s="21">
-        <v>326255</v>
-      </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A447" s="21"/>
+      <c r="A447" s="21">
+        <v>14</v>
+      </c>
+      <c r="B447" s="23" t="s">
+        <v>134</v>
+      </c>
       <c r="C447" t="s">
         <v>144</v>
       </c>
       <c r="D447" s="21">
-        <v>326257</v>
+        <v>326250</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" s="21"/>
       <c r="C448" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D448" s="21">
-        <v>326258</v>
+        <v>326247</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" s="21"/>
       <c r="C449" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D449" s="21">
-        <v>326259</v>
+        <v>326248</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" s="21"/>
+      <c r="C450" t="s">
+        <v>145</v>
+      </c>
+      <c r="D450" s="21">
+        <v>326249</v>
+      </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A451" s="21">
-        <v>14</v>
-      </c>
-      <c r="B451" s="23" t="s">
-        <v>126</v>
-      </c>
+      <c r="A451" s="21"/>
       <c r="C451" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D451" s="21">
         <v>326252</v>
@@ -19181,838 +19279,837 @@
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" s="21"/>
       <c r="C452" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="D452" s="21">
-        <v>326247</v>
+        <v>326251</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" s="21"/>
       <c r="C453" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D453" s="21">
-        <v>326248</v>
+        <v>326256</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" s="21"/>
       <c r="C454" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D454" s="21">
-        <v>326250</v>
+        <v>326253</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" s="21"/>
       <c r="C455" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D455" s="21">
-        <v>326249</v>
+        <v>326254</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" s="21"/>
       <c r="C456" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="D456" s="21">
-        <v>326251</v>
+        <v>326255</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" s="21"/>
       <c r="C457" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="D457" s="21">
-        <v>326256</v>
+        <v>326257</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" s="21"/>
       <c r="C458" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="D458" s="21">
-        <v>326253</v>
+        <v>326258</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="21"/>
       <c r="C459" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="D459" s="21">
-        <v>326254</v>
+        <v>326259</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" s="21"/>
-      <c r="C460" t="s">
-        <v>143</v>
-      </c>
-      <c r="D460" s="21">
-        <v>326255</v>
-      </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A461" s="21"/>
+      <c r="A461" s="21">
+        <v>14</v>
+      </c>
+      <c r="B461" s="23" t="s">
+        <v>134</v>
+      </c>
       <c r="C461" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D461" s="21">
-        <v>326257</v>
+        <v>326249</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" s="21"/>
       <c r="C462" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D462" s="21">
-        <v>326258</v>
+        <v>326247</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" s="21"/>
       <c r="C463" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D463" s="21">
-        <v>326259</v>
+        <v>326248</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" s="21"/>
+      <c r="C464" t="s">
+        <v>144</v>
+      </c>
+      <c r="D464" s="21">
+        <v>326250</v>
+      </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A465" s="21">
-        <v>14</v>
-      </c>
-      <c r="B465" s="23" t="s">
-        <v>126</v>
-      </c>
+      <c r="A465" s="21"/>
       <c r="C465" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D465" s="21">
-        <v>326251</v>
+        <v>326252</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="21"/>
       <c r="C466" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="D466" s="21">
-        <v>326247</v>
+        <v>326251</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="21"/>
       <c r="C467" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D467" s="21">
-        <v>326248</v>
+        <v>326256</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="21"/>
       <c r="C468" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D468" s="21">
-        <v>326250</v>
+        <v>326253</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="21"/>
       <c r="C469" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D469" s="21">
-        <v>326249</v>
+        <v>326254</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="21"/>
       <c r="C470" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="D470" s="21">
-        <v>326252</v>
+        <v>326255</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="21"/>
       <c r="C471" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="D471" s="21">
-        <v>326256</v>
+        <v>326257</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="21"/>
       <c r="C472" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="D472" s="21">
-        <v>326253</v>
+        <v>326258</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="21"/>
       <c r="C473" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="D473" s="21">
-        <v>326254</v>
+        <v>326259</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="21"/>
-      <c r="C474" t="s">
-        <v>143</v>
-      </c>
-      <c r="D474" s="21">
-        <v>326255</v>
-      </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A475" s="21"/>
+      <c r="A475" s="21">
+        <v>14</v>
+      </c>
+      <c r="B475" s="23" t="s">
+        <v>134</v>
+      </c>
       <c r="C475" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D475" s="21">
-        <v>326257</v>
+        <v>326252</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="21"/>
       <c r="C476" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D476" s="21">
-        <v>326258</v>
+        <v>326247</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="21"/>
       <c r="C477" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D477" s="21">
-        <v>326259</v>
+        <v>326248</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="21"/>
+      <c r="C478" t="s">
+        <v>144</v>
+      </c>
+      <c r="D478" s="21">
+        <v>326250</v>
+      </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A479" s="21">
-        <v>14</v>
-      </c>
-      <c r="B479" s="23" t="s">
-        <v>126</v>
-      </c>
+      <c r="A479" s="21"/>
       <c r="C479" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D479" s="21">
-        <v>326256</v>
+        <v>326249</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480" s="21"/>
       <c r="C480" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="D480" s="21">
-        <v>326247</v>
+        <v>326251</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481" s="21"/>
       <c r="C481" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D481" s="21">
-        <v>326248</v>
+        <v>326256</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482" s="21"/>
       <c r="C482" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D482" s="21">
-        <v>326250</v>
+        <v>326253</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483" s="21"/>
       <c r="C483" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D483" s="21">
-        <v>326249</v>
+        <v>326254</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484" s="21"/>
       <c r="C484" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="D484" s="21">
-        <v>326252</v>
+        <v>326255</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" s="21"/>
       <c r="C485" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="D485" s="21">
-        <v>326251</v>
+        <v>326257</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486" s="21"/>
       <c r="C486" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="D486" s="21">
-        <v>326253</v>
+        <v>326258</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" s="21"/>
       <c r="C487" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="D487" s="21">
-        <v>326254</v>
+        <v>326259</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" s="21"/>
-      <c r="C488" t="s">
-        <v>143</v>
-      </c>
-      <c r="D488" s="21">
-        <v>326255</v>
-      </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A489" s="21"/>
+      <c r="A489" s="21">
+        <v>14</v>
+      </c>
+      <c r="B489" s="23" t="s">
+        <v>134</v>
+      </c>
       <c r="C489" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D489" s="21">
-        <v>326257</v>
+        <v>326251</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" s="21"/>
       <c r="C490" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D490" s="21">
-        <v>326258</v>
+        <v>326247</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" s="21"/>
       <c r="C491" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D491" s="21">
-        <v>326259</v>
+        <v>326248</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" s="21"/>
+      <c r="C492" t="s">
+        <v>144</v>
+      </c>
+      <c r="D492" s="21">
+        <v>326250</v>
+      </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A493" s="21">
-        <v>14</v>
-      </c>
-      <c r="B493" s="23" t="s">
-        <v>126</v>
-      </c>
+      <c r="A493" s="21"/>
       <c r="C493" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D493" s="21">
-        <v>326253</v>
+        <v>326249</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" s="21"/>
       <c r="C494" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="D494" s="21">
-        <v>326247</v>
+        <v>326252</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A495" s="21"/>
       <c r="C495" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D495" s="21">
-        <v>326248</v>
+        <v>326256</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" s="21"/>
       <c r="C496" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D496" s="21">
-        <v>326250</v>
+        <v>326253</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" s="21"/>
       <c r="C497" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D497" s="21">
-        <v>326249</v>
+        <v>326254</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" s="21"/>
       <c r="C498" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="D498" s="21">
-        <v>326252</v>
+        <v>326255</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" s="21"/>
       <c r="C499" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="D499" s="21">
-        <v>326251</v>
+        <v>326257</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="21"/>
       <c r="C500" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="D500" s="21">
-        <v>326256</v>
+        <v>326258</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" s="21"/>
       <c r="C501" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="D501" s="21">
-        <v>326254</v>
+        <v>326259</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" s="21"/>
-      <c r="C502" t="s">
-        <v>143</v>
-      </c>
-      <c r="D502" s="21">
-        <v>326255</v>
-      </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A503" s="21"/>
+      <c r="A503" s="21">
+        <v>14</v>
+      </c>
+      <c r="B503" s="23" t="s">
+        <v>134</v>
+      </c>
       <c r="C503" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D503" s="21">
-        <v>326257</v>
+        <v>326256</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" s="21"/>
       <c r="C504" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D504" s="21">
-        <v>326258</v>
+        <v>326247</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" s="21"/>
       <c r="C505" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D505" s="21">
-        <v>326259</v>
+        <v>326248</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="21"/>
+      <c r="C506" t="s">
+        <v>144</v>
+      </c>
+      <c r="D506" s="21">
+        <v>326250</v>
+      </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A507" s="21">
-        <v>14</v>
-      </c>
-      <c r="B507" s="23" t="s">
-        <v>126</v>
-      </c>
+      <c r="A507" s="21"/>
       <c r="C507" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D507" s="21">
-        <v>326254</v>
+        <v>326249</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="21"/>
       <c r="C508" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="D508" s="21">
-        <v>326247</v>
+        <v>326252</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" s="21"/>
       <c r="C509" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D509" s="21">
-        <v>326248</v>
+        <v>326251</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" s="21"/>
       <c r="C510" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D510" s="21">
-        <v>326250</v>
+        <v>326253</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A511" s="21"/>
       <c r="C511" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D511" s="21">
-        <v>326249</v>
+        <v>326254</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A512" s="21"/>
       <c r="C512" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="D512" s="21">
-        <v>326252</v>
+        <v>326255</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A513" s="21"/>
       <c r="C513" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="D513" s="21">
-        <v>326251</v>
+        <v>326257</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A514" s="21"/>
       <c r="C514" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="D514" s="21">
-        <v>326256</v>
+        <v>326258</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A515" s="21"/>
       <c r="C515" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="D515" s="21">
-        <v>326253</v>
+        <v>326259</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A516" s="21"/>
-      <c r="C516" t="s">
-        <v>143</v>
-      </c>
-      <c r="D516" s="21">
-        <v>326255</v>
-      </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A517" s="21"/>
+      <c r="A517" s="21">
+        <v>14</v>
+      </c>
+      <c r="B517" s="23" t="s">
+        <v>134</v>
+      </c>
       <c r="C517" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D517" s="21">
-        <v>326257</v>
+        <v>326253</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A518" s="21"/>
       <c r="C518" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D518" s="21">
-        <v>326258</v>
+        <v>326247</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A519" s="21"/>
       <c r="C519" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D519" s="21">
-        <v>326259</v>
+        <v>326248</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A520" s="21"/>
+      <c r="C520" t="s">
+        <v>144</v>
+      </c>
+      <c r="D520" s="21">
+        <v>326250</v>
+      </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A521" s="21">
-        <v>14</v>
-      </c>
-      <c r="B521" s="23" t="s">
-        <v>126</v>
-      </c>
+      <c r="A521" s="21"/>
       <c r="C521" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D521" s="21">
-        <v>326255</v>
+        <v>326249</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" s="21"/>
       <c r="C522" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="D522" s="21">
-        <v>326247</v>
+        <v>326252</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" s="21"/>
       <c r="C523" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D523" s="21">
-        <v>326248</v>
+        <v>326251</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A524" s="21"/>
       <c r="C524" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D524" s="21">
-        <v>326250</v>
+        <v>326256</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" s="21"/>
       <c r="C525" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D525" s="21">
-        <v>326249</v>
+        <v>326254</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" s="21"/>
       <c r="C526" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="D526" s="21">
-        <v>326252</v>
+        <v>326255</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" s="21"/>
       <c r="C527" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="D527" s="21">
-        <v>326251</v>
+        <v>326257</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" s="21"/>
       <c r="C528" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="D528" s="21">
-        <v>326256</v>
+        <v>326258</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" s="21"/>
       <c r="C529" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="D529" s="21">
-        <v>326253</v>
+        <v>326259</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" s="21"/>
-      <c r="C530" t="s">
-        <v>142</v>
-      </c>
-      <c r="D530" s="21">
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A531" s="21">
+        <v>14</v>
+      </c>
+      <c r="B531" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C531" t="s">
+        <v>150</v>
+      </c>
+      <c r="D531" s="21">
         <v>326254</v>
-      </c>
-    </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A531" s="21"/>
-      <c r="C531" t="s">
-        <v>144</v>
-      </c>
-      <c r="D531" s="21">
-        <v>326257</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" s="21"/>
       <c r="C532" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D532" s="21">
-        <v>326258</v>
+        <v>326247</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" s="21"/>
       <c r="C533" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D533" s="21">
-        <v>326259</v>
+        <v>326248</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" s="21"/>
+      <c r="C534" t="s">
+        <v>144</v>
+      </c>
+      <c r="D534" s="21">
+        <v>326250</v>
+      </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A535" s="21">
-        <v>14</v>
-      </c>
-      <c r="B535" s="23" t="s">
-        <v>126</v>
-      </c>
+      <c r="A535" s="21"/>
       <c r="C535" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D535" s="21">
-        <v>326257</v>
+        <v>326249</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" s="21"/>
       <c r="C536" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="D536" s="21">
-        <v>326247</v>
+        <v>326252</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" s="21"/>
       <c r="C537" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D537" s="21">
-        <v>326248</v>
+        <v>326251</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" s="21"/>
       <c r="C538" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D538" s="21">
-        <v>326250</v>
+        <v>326256</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" s="21"/>
       <c r="C539" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D539" s="21">
-        <v>326249</v>
+        <v>326253</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" s="21"/>
       <c r="C540" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="D540" s="21">
-        <v>326252</v>
+        <v>326255</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="21"/>
       <c r="C541" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="D541" s="21">
-        <v>326251</v>
+        <v>326257</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A542" s="21"/>
       <c r="C542" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="D542" s="21">
-        <v>326256</v>
+        <v>326258</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A543" s="21"/>
       <c r="C543" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="D543" s="21">
-        <v>326253</v>
+        <v>326259</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544" s="21"/>
-      <c r="C544" t="s">
-        <v>142</v>
-      </c>
-      <c r="D544" s="21">
-        <v>326254</v>
-      </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A545" s="21"/>
+      <c r="A545" s="21">
+        <v>14</v>
+      </c>
+      <c r="B545" s="23" t="s">
+        <v>134</v>
+      </c>
       <c r="C545" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D545" s="21">
         <v>326255</v>
@@ -20021,428 +20118,430 @@
     <row r="546" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A546" s="21"/>
       <c r="C546" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D546" s="21">
-        <v>326258</v>
+        <v>326247</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A547" s="21"/>
       <c r="C547" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D547" s="21">
-        <v>326259</v>
+        <v>326248</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A548" s="21"/>
+      <c r="C548" t="s">
+        <v>144</v>
+      </c>
+      <c r="D548" s="21">
+        <v>326250</v>
+      </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A549" s="21">
-        <v>14</v>
-      </c>
-      <c r="B549" s="23" t="s">
-        <v>126</v>
-      </c>
+      <c r="A549" s="21"/>
       <c r="C549" t="s">
         <v>145</v>
       </c>
       <c r="D549" s="21">
-        <v>326258</v>
+        <v>326249</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A550" s="21"/>
       <c r="C550" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="D550" s="21">
-        <v>326247</v>
+        <v>326252</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A551" s="21"/>
       <c r="C551" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D551" s="21">
-        <v>326248</v>
+        <v>326251</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A552" s="21"/>
       <c r="C552" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D552" s="21">
-        <v>326250</v>
+        <v>326256</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A553" s="21"/>
       <c r="C553" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D553" s="21">
-        <v>326249</v>
+        <v>326253</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A554" s="21"/>
       <c r="C554" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D554" s="21">
-        <v>326252</v>
+        <v>326254</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A555" s="21"/>
       <c r="C555" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="D555" s="21">
-        <v>326251</v>
+        <v>326257</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A556" s="21"/>
       <c r="C556" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="D556" s="21">
-        <v>326256</v>
+        <v>326258</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A557" s="21"/>
       <c r="C557" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="D557" s="21">
-        <v>326253</v>
+        <v>326259</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A558" s="21"/>
-      <c r="C558" t="s">
-        <v>142</v>
-      </c>
-      <c r="D558" s="21">
-        <v>326254</v>
-      </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A559" s="21"/>
+      <c r="A559" s="21">
+        <v>14</v>
+      </c>
+      <c r="B559" s="23" t="s">
+        <v>134</v>
+      </c>
       <c r="C559" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D559" s="21">
-        <v>326255</v>
+        <v>326257</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A560" s="21"/>
       <c r="C560" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D560" s="21">
-        <v>326257</v>
+        <v>326247</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A561" s="21"/>
       <c r="C561" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D561" s="21">
-        <v>326259</v>
+        <v>326248</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A562" s="21"/>
+      <c r="C562" t="s">
+        <v>144</v>
+      </c>
+      <c r="D562" s="21">
+        <v>326250</v>
+      </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A563" s="21">
-        <v>14</v>
-      </c>
-      <c r="B563" s="23" t="s">
-        <v>126</v>
-      </c>
+      <c r="A563" s="21"/>
       <c r="C563" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D563" s="21">
-        <v>326259</v>
+        <v>326249</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A564" s="21"/>
       <c r="C564" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="D564" s="21">
-        <v>326247</v>
+        <v>326252</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A565" s="21"/>
       <c r="C565" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D565" s="21">
-        <v>326248</v>
+        <v>326251</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A566" s="21"/>
       <c r="C566" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D566" s="21">
-        <v>326250</v>
+        <v>326256</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A567" s="21"/>
       <c r="C567" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D567" s="21">
-        <v>326249</v>
+        <v>326253</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A568" s="21"/>
       <c r="C568" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D568" s="21">
-        <v>326252</v>
+        <v>326254</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A569" s="21"/>
       <c r="C569" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="D569" s="21">
-        <v>326251</v>
+        <v>326255</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A570" s="21"/>
       <c r="C570" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="D570" s="21">
-        <v>326256</v>
+        <v>326258</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A571" s="21"/>
       <c r="C571" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="D571" s="21">
-        <v>326253</v>
+        <v>326259</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A572" s="21"/>
-      <c r="C572" t="s">
-        <v>142</v>
-      </c>
-      <c r="D572" s="21">
-        <v>326254</v>
-      </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A573" s="21"/>
+      <c r="A573" s="21">
+        <v>14</v>
+      </c>
+      <c r="B573" s="23" t="s">
+        <v>134</v>
+      </c>
       <c r="C573" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D573" s="21">
-        <v>326255</v>
+        <v>326258</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A574" s="21"/>
       <c r="C574" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D574" s="21">
-        <v>326257</v>
+        <v>326247</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A575" s="21"/>
       <c r="C575" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D575" s="21">
-        <v>326258</v>
+        <v>326248</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A576" s="21"/>
+      <c r="C576" t="s">
+        <v>144</v>
+      </c>
+      <c r="D576" s="21">
+        <v>326250</v>
+      </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A577" s="21">
-        <v>15</v>
-      </c>
-      <c r="B577" s="23" t="s">
-        <v>147</v>
-      </c>
+      <c r="A577" s="21"/>
       <c r="C577" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D577" s="21">
-        <v>324148</v>
+        <v>326249</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A578" s="21"/>
       <c r="C578" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D578" s="21">
-        <v>324152</v>
+        <v>326252</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A579" s="21"/>
       <c r="C579" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D579" s="21">
-        <v>324150</v>
+        <v>326251</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A580" s="21"/>
       <c r="C580" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D580" s="21">
-        <v>324158</v>
+        <v>326256</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A581" s="21"/>
       <c r="C581" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D581" s="21">
-        <v>324154</v>
+        <v>326253</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A582" s="21"/>
       <c r="C582" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D582" s="21">
-        <v>324156</v>
+        <v>326254</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A583" s="21"/>
       <c r="C583" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D583" s="21">
-        <v>324160</v>
+        <v>326255</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A584" s="21"/>
+      <c r="C584" t="s">
+        <v>152</v>
+      </c>
+      <c r="D584" s="21">
+        <v>326257</v>
+      </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A585" s="21">
-        <v>15</v>
-      </c>
-      <c r="B585" s="23" t="s">
-        <v>147</v>
-      </c>
+      <c r="A585" s="21"/>
       <c r="C585" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D585" s="21">
-        <v>324152</v>
+        <v>326259</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A586" s="21"/>
-      <c r="C586" t="s">
-        <v>148</v>
-      </c>
-      <c r="D586" s="21">
-        <v>324148</v>
-      </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A587" s="21"/>
+      <c r="A587" s="21">
+        <v>14</v>
+      </c>
+      <c r="B587" s="23" t="s">
+        <v>134</v>
+      </c>
       <c r="C587" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D587" s="21">
-        <v>324150</v>
+        <v>326259</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A588" s="21"/>
       <c r="C588" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D588" s="21">
-        <v>324158</v>
+        <v>326247</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A589" s="21"/>
       <c r="C589" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D589" s="21">
-        <v>324154</v>
+        <v>326248</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A590" s="21"/>
       <c r="C590" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D590" s="21">
-        <v>324156</v>
+        <v>326250</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A591" s="21"/>
       <c r="C591" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D591" s="21">
-        <v>324160</v>
+        <v>326249</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A592" s="21"/>
+      <c r="C592" t="s">
+        <v>146</v>
+      </c>
+      <c r="D592" s="21">
+        <v>326252</v>
+      </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A593" s="21">
-        <v>15</v>
-      </c>
-      <c r="B593" s="23" t="s">
+      <c r="A593" s="21"/>
+      <c r="C593" t="s">
         <v>147</v>
       </c>
-      <c r="C593" t="s">
-        <v>150</v>
-      </c>
       <c r="D593" s="21">
-        <v>324150</v>
+        <v>326251</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.2">
@@ -20451,7 +20550,7 @@
         <v>148</v>
       </c>
       <c r="D594" s="21">
-        <v>324148</v>
+        <v>326256</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.2">
@@ -20460,43 +20559,43 @@
         <v>149</v>
       </c>
       <c r="D595" s="21">
-        <v>324152</v>
+        <v>326253</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A596" s="21"/>
       <c r="C596" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D596" s="21">
-        <v>324158</v>
+        <v>326254</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A597" s="21"/>
       <c r="C597" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D597" s="21">
-        <v>324154</v>
+        <v>326255</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A598" s="21"/>
       <c r="C598" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D598" s="21">
-        <v>324156</v>
+        <v>326257</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A599" s="21"/>
       <c r="C599" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D599" s="21">
-        <v>324160</v>
+        <v>326258</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.2">
@@ -20507,46 +20606,46 @@
         <v>15</v>
       </c>
       <c r="B601" s="23" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C601" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D601" s="21">
-        <v>324158</v>
+        <v>324148</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A602" s="21"/>
       <c r="C602" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="D602" s="21">
-        <v>324148</v>
+        <v>324152</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A603" s="21"/>
       <c r="C603" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="D603" s="21">
-        <v>324152</v>
+        <v>324150</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A604" s="21"/>
       <c r="C604" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="D604" s="21">
-        <v>324150</v>
+        <v>324158</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A605" s="21"/>
       <c r="C605" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D605" s="21">
         <v>324154</v>
@@ -20555,7 +20654,7 @@
     <row r="606" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A606" s="21"/>
       <c r="C606" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D606" s="21">
         <v>324156</v>
@@ -20564,7 +20663,7 @@
     <row r="607" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A607" s="21"/>
       <c r="C607" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="D607" s="21">
         <v>324160</v>
@@ -20578,19 +20677,19 @@
         <v>15</v>
       </c>
       <c r="B609" s="23" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C609" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D609" s="21">
-        <v>324154</v>
+        <v>324152</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A610" s="21"/>
       <c r="C610" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D610" s="21">
         <v>324148</v>
@@ -20599,34 +20698,34 @@
     <row r="611" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A611" s="21"/>
       <c r="C611" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="D611" s="21">
-        <v>324152</v>
+        <v>324150</v>
       </c>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A612" s="21"/>
       <c r="C612" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="D612" s="21">
-        <v>324150</v>
+        <v>324158</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A613" s="21"/>
       <c r="C613" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D613" s="21">
-        <v>324158</v>
+        <v>324154</v>
       </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A614" s="21"/>
       <c r="C614" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D614" s="21">
         <v>324156</v>
@@ -20635,7 +20734,7 @@
     <row r="615" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A615" s="21"/>
       <c r="C615" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="D615" s="21">
         <v>324160</v>
@@ -20649,19 +20748,19 @@
         <v>15</v>
       </c>
       <c r="B617" s="23" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C617" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D617" s="21">
-        <v>324156</v>
+        <v>324150</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A618" s="21"/>
       <c r="C618" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D618" s="21">
         <v>324148</v>
@@ -20670,7 +20769,7 @@
     <row r="619" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A619" s="21"/>
       <c r="C619" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D619" s="21">
         <v>324152</v>
@@ -20679,34 +20778,34 @@
     <row r="620" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A620" s="21"/>
       <c r="C620" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="D620" s="21">
-        <v>324150</v>
+        <v>324158</v>
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A621" s="21"/>
       <c r="C621" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D621" s="21">
-        <v>324158</v>
+        <v>324154</v>
       </c>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A622" s="21"/>
       <c r="C622" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="D622" s="21">
-        <v>324154</v>
+        <v>324156</v>
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A623" s="21"/>
       <c r="C623" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="D623" s="21">
         <v>324160</v>
@@ -20715,136 +20814,349 @@
     <row r="624" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A624" s="21"/>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A625" s="21">
         <v>15</v>
       </c>
       <c r="B625" s="23" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C625" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D625" s="21">
-        <v>324160</v>
-      </c>
-    </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.2">
+        <v>324158</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A626" s="21"/>
       <c r="C626" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D626" s="21">
         <v>324148</v>
       </c>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A627" s="21"/>
       <c r="C627" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D627" s="21">
         <v>324152</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A628" s="21"/>
       <c r="C628" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="D628" s="21">
         <v>324150</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A629" s="21"/>
       <c r="C629" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D629" s="21">
-        <v>324158</v>
-      </c>
-    </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.2">
+        <v>324154</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A630" s="21"/>
       <c r="C630" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="D630" s="21">
-        <v>324154</v>
-      </c>
-    </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.2">
+        <v>324156</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A631" s="21"/>
       <c r="C631" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D631" s="21">
-        <v>324156</v>
-      </c>
-    </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.2">
+        <v>324160</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A632" s="21"/>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A633" s="21">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B633" s="23" t="s">
         <v>155</v>
       </c>
       <c r="C633" t="s">
+        <v>160</v>
+      </c>
+      <c r="D633" s="21">
+        <v>324154</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A634" s="21"/>
+      <c r="C634" t="s">
         <v>156</v>
       </c>
-      <c r="D633" s="21">
+      <c r="D634" s="21">
+        <v>324148</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A635" s="21"/>
+      <c r="C635" t="s">
+        <v>157</v>
+      </c>
+      <c r="D635" s="21">
+        <v>324152</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A636" s="21"/>
+      <c r="C636" t="s">
+        <v>158</v>
+      </c>
+      <c r="D636" s="21">
+        <v>324150</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A637" s="21"/>
+      <c r="C637" t="s">
+        <v>159</v>
+      </c>
+      <c r="D637" s="21">
+        <v>324158</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A638" s="21"/>
+      <c r="C638" t="s">
+        <v>161</v>
+      </c>
+      <c r="D638" s="21">
+        <v>324156</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A639" s="21"/>
+      <c r="C639" t="s">
+        <v>162</v>
+      </c>
+      <c r="D639" s="21">
+        <v>324160</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A640" s="21"/>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A641" s="21">
+        <v>15</v>
+      </c>
+      <c r="B641" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="C641" t="s">
+        <v>161</v>
+      </c>
+      <c r="D641" s="21">
+        <v>324156</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A642" s="21"/>
+      <c r="C642" t="s">
+        <v>156</v>
+      </c>
+      <c r="D642" s="21">
+        <v>324148</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A643" s="21"/>
+      <c r="C643" t="s">
+        <v>157</v>
+      </c>
+      <c r="D643" s="21">
+        <v>324152</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A644" s="21"/>
+      <c r="C644" t="s">
+        <v>158</v>
+      </c>
+      <c r="D644" s="21">
+        <v>324150</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A645" s="21"/>
+      <c r="C645" t="s">
+        <v>159</v>
+      </c>
+      <c r="D645" s="21">
+        <v>324158</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A646" s="21"/>
+      <c r="C646" t="s">
+        <v>160</v>
+      </c>
+      <c r="D646" s="21">
+        <v>324154</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A647" s="21"/>
+      <c r="C647" t="s">
+        <v>162</v>
+      </c>
+      <c r="D647" s="21">
+        <v>324160</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A648" s="21"/>
+    </row>
+    <row r="649" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A649" s="21">
+        <v>15</v>
+      </c>
+      <c r="B649" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="C649" t="s">
+        <v>162</v>
+      </c>
+      <c r="D649" s="21">
+        <v>324160</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A650" s="21"/>
+      <c r="C650" t="s">
+        <v>156</v>
+      </c>
+      <c r="D650" s="21">
+        <v>324148</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A651" s="21"/>
+      <c r="C651" t="s">
+        <v>157</v>
+      </c>
+      <c r="D651" s="21">
+        <v>324152</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A652" s="21"/>
+      <c r="C652" t="s">
+        <v>158</v>
+      </c>
+      <c r="D652" s="21">
+        <v>324150</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A653" s="21"/>
+      <c r="C653" t="s">
+        <v>159</v>
+      </c>
+      <c r="D653" s="21">
+        <v>324158</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A654" s="21"/>
+      <c r="C654" t="s">
+        <v>160</v>
+      </c>
+      <c r="D654" s="21">
+        <v>324154</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A655" s="21"/>
+      <c r="C655" t="s">
+        <v>161</v>
+      </c>
+      <c r="D655" s="21">
+        <v>324156</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A656" s="21"/>
+    </row>
+    <row r="657" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A657" s="21">
+        <v>16</v>
+      </c>
+      <c r="B657" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C657" t="s">
+        <v>164</v>
+      </c>
+      <c r="D657" s="21">
         <v>212988</v>
       </c>
-      <c r="E633" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A634" s="21"/>
-    </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A635" s="21">
+      <c r="E657" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="658" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A658" s="21"/>
+    </row>
+    <row r="659" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A659" s="21">
         <v>16</v>
       </c>
-      <c r="B635" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="C635" t="s">
-        <v>158</v>
-      </c>
-      <c r="D635" s="21">
+      <c r="B659" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C659" t="s">
+        <v>166</v>
+      </c>
+      <c r="D659" s="21">
         <v>215437</v>
       </c>
-      <c r="E635" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A636" s="21"/>
-    </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A637" s="21">
+      <c r="E659" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="660" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A660" s="21"/>
+    </row>
+    <row r="661" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A661" s="21">
         <v>17</v>
       </c>
-      <c r="B637" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="C637" t="s">
-        <v>160</v>
-      </c>
-      <c r="D637" s="21">
+      <c r="B661" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C661" t="s">
+        <v>168</v>
+      </c>
+      <c r="D661" s="21">
         <v>327635</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A638" s="21"/>
-    </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A639" s="21"/>
+    <row r="662" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A662" s="21"/>
+    </row>
+    <row r="663" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A663" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -20881,10 +21193,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -20892,13 +21204,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E2" s="7"/>
     </row>
@@ -20906,7 +21218,7 @@
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="8" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="D3" s="9">
         <v>292546</v>
@@ -20917,10 +21229,10 @@
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="8" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E4" s="12"/>
     </row>
@@ -20928,10 +21240,10 @@
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="8" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E5" s="12"/>
     </row>
@@ -20939,10 +21251,10 @@
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="8" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E6" s="12"/>
     </row>
@@ -20950,10 +21262,10 @@
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="8" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E7" s="12"/>
     </row>
@@ -20969,10 +21281,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="D9" s="9">
         <v>184477</v>
@@ -20983,7 +21295,7 @@
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="8" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="D10" s="9">
         <v>292535</v>
@@ -21002,10 +21314,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="D12" s="9">
         <v>292483</v>
@@ -21016,7 +21328,7 @@
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="14" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D13" s="15">
         <v>242529</v>
@@ -21027,7 +21339,7 @@
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="17" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D14" s="9">
         <v>242660</v>
@@ -21038,10 +21350,10 @@
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="17" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E15" s="12"/>
     </row>
@@ -21049,10 +21361,10 @@
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="17" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E16" s="12"/>
     </row>
@@ -21060,10 +21372,10 @@
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="17" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E17" s="12"/>
     </row>
@@ -21071,10 +21383,10 @@
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="17" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E18" s="12"/>
     </row>
@@ -21082,10 +21394,10 @@
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="17" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E19" s="12"/>
     </row>
@@ -21093,10 +21405,10 @@
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="17" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="E20" s="12"/>
     </row>
@@ -21104,10 +21416,10 @@
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="17" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="E21" s="12"/>
     </row>
@@ -21115,10 +21427,10 @@
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="17" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E22" s="12"/>
     </row>
@@ -21126,10 +21438,10 @@
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="17" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="E23" s="12"/>
     </row>
@@ -21137,10 +21449,10 @@
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="17" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="E24" s="12"/>
     </row>
@@ -21148,10 +21460,10 @@
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="17" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="E25" s="12"/>
     </row>
@@ -21167,10 +21479,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="D27" s="9">
         <v>161570</v>
@@ -21181,10 +21493,10 @@
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="8" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="E28" s="12"/>
     </row>
@@ -21192,10 +21504,10 @@
       <c r="A29" s="3"/>
       <c r="B29" s="18"/>
       <c r="C29" s="8" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="E29" s="12"/>
     </row>
@@ -21211,10 +21523,10 @@
         <v>5</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="D31" s="9">
         <v>242661</v>
@@ -21225,7 +21537,7 @@
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="8" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="D32" s="19">
         <v>242530</v>
@@ -21236,7 +21548,7 @@
       <c r="A33" s="3"/>
       <c r="B33" s="18"/>
       <c r="C33" s="8" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="D33" s="19">
         <v>199138</v>
@@ -21247,7 +21559,7 @@
       <c r="A34" s="3"/>
       <c r="B34" s="18"/>
       <c r="C34" s="8" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D34" s="9">
         <v>292536</v>
@@ -21258,7 +21570,7 @@
       <c r="A35" s="3"/>
       <c r="B35" s="18"/>
       <c r="C35" s="8" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="D35" s="9">
         <v>199198</v>
@@ -21269,7 +21581,7 @@
       <c r="A36" s="3"/>
       <c r="B36" s="18"/>
       <c r="C36" s="8" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="D36" s="9">
         <v>162797</v>
@@ -21280,7 +21592,7 @@
       <c r="A37" s="3"/>
       <c r="B37" s="18"/>
       <c r="C37" s="8" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="D37" s="9">
         <v>292536</v>
@@ -21291,10 +21603,10 @@
       <c r="A38" s="3"/>
       <c r="B38" s="18"/>
       <c r="C38" s="8" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="E38" s="12"/>
     </row>
@@ -21302,10 +21614,10 @@
       <c r="A39" s="3"/>
       <c r="B39" s="18"/>
       <c r="C39" s="8" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="E39" s="12"/>
     </row>
@@ -21313,10 +21625,10 @@
       <c r="A40" s="3"/>
       <c r="B40" s="18"/>
       <c r="C40" s="8" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="E40" s="12"/>
     </row>
@@ -21324,10 +21636,10 @@
       <c r="A41" s="3"/>
       <c r="B41" s="18"/>
       <c r="C41" s="8" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="E41" s="12"/>
     </row>
@@ -21335,10 +21647,10 @@
       <c r="A42" s="3"/>
       <c r="B42" s="18"/>
       <c r="C42" s="8" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="E42" s="12"/>
     </row>
@@ -21346,10 +21658,10 @@
       <c r="A43" s="3"/>
       <c r="B43" s="18"/>
       <c r="C43" s="8" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="E43" s="12"/>
     </row>
@@ -21357,10 +21669,10 @@
       <c r="A44" s="3"/>
       <c r="B44" s="18"/>
       <c r="C44" s="8" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="E44" s="12"/>
     </row>
@@ -21368,10 +21680,10 @@
       <c r="A45" s="3"/>
       <c r="B45" s="18"/>
       <c r="C45" s="8" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E45" s="12"/>
     </row>
@@ -21379,10 +21691,10 @@
       <c r="A46" s="3"/>
       <c r="B46" s="18"/>
       <c r="C46" s="8" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="E46" s="12"/>
     </row>
@@ -21390,7 +21702,7 @@
       <c r="A47" s="3"/>
       <c r="B47" s="18"/>
       <c r="C47" s="8" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="D47" s="9">
         <v>163140</v>
@@ -21401,10 +21713,10 @@
       <c r="A48" s="3"/>
       <c r="B48" s="18"/>
       <c r="C48" s="8" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="E48" s="12"/>
     </row>
@@ -21412,10 +21724,10 @@
       <c r="A49" s="3"/>
       <c r="B49" s="18"/>
       <c r="C49" s="8" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="E49" s="12"/>
     </row>
@@ -21423,10 +21735,10 @@
       <c r="A50" s="3"/>
       <c r="B50" s="18"/>
       <c r="C50" s="8" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="E50" s="12"/>
     </row>
@@ -21434,10 +21746,10 @@
       <c r="A51" s="3"/>
       <c r="B51" s="18"/>
       <c r="C51" s="8" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="E51" s="12"/>
     </row>
@@ -21445,10 +21757,10 @@
       <c r="A52" s="3"/>
       <c r="B52" s="18"/>
       <c r="C52" s="8" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E52" s="12"/>
     </row>
@@ -21456,10 +21768,10 @@
       <c r="A53" s="3"/>
       <c r="B53" s="18"/>
       <c r="C53" s="8" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E53" s="12"/>
     </row>
@@ -21467,10 +21779,10 @@
       <c r="A54" s="3"/>
       <c r="B54" s="18"/>
       <c r="C54" s="8" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="E54" s="12"/>
     </row>
@@ -21478,10 +21790,10 @@
       <c r="A55" s="3"/>
       <c r="B55" s="18"/>
       <c r="C55" s="8" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="E55" s="12"/>
     </row>
@@ -21489,10 +21801,10 @@
       <c r="A56" s="3"/>
       <c r="B56" s="18"/>
       <c r="C56" s="8" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="E56" s="12"/>
     </row>
@@ -21500,10 +21812,10 @@
       <c r="A57" s="3"/>
       <c r="B57" s="18"/>
       <c r="C57" s="8" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="E57" s="12"/>
     </row>
@@ -21519,10 +21831,10 @@
         <v>6</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="D59" s="9">
         <v>242662</v>
@@ -21541,23 +21853,23 @@
         <v>7</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="D61" s="9">
         <v>242568</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="18"/>
       <c r="C62" s="8" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="D62" s="9">
         <v>242569</v>
@@ -21568,7 +21880,7 @@
       <c r="A63" s="3"/>
       <c r="B63" s="18"/>
       <c r="C63" s="8" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="D63" s="9">
         <v>242569</v>
@@ -21617,16 +21929,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -21634,10 +21946,10 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -21645,10 +21957,10 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -21663,10 +21975,10 @@
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -21674,10 +21986,10 @@
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -21685,10 +21997,10 @@
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -21703,10 +22015,10 @@
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -21714,10 +22026,10 @@
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -21725,10 +22037,10 @@
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -21944,15 +22256,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="c1a8c52c-6c4f-4875-9b6b-44f384efb174">
@@ -21960,6 +22263,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21981,14 +22293,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60A20EAD-865D-4166-9FB1-F068244676A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DE6B0B2-0B55-472B-99E5-1FE490B156C1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -21998,6 +22302,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60A20EAD-865D-4166-9FB1-F068244676A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{9396317e-03ca-4ddd-bc6f-adf29e7f1a41}" enabled="1" method="Standard" siteId="{62366534-1ec3-4962-8869-9b5535279d0b}" removed="0"/>
